--- a/uploads/parent_bulk_upload_error_details_for_excel_file.xlsx
+++ b/uploads/parent_bulk_upload_error_details_for_excel_file.xlsx
@@ -15,66 +15,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
-  <si>
-    <t>Father's First Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+  <si>
+    <t>Father's Name</t>
+  </si>
+  <si>
+    <t>Mother's Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>User Email</t>
+  </si>
+  <si>
+    <t>Father's Profession</t>
+  </si>
+  <si>
+    <t>Mother's Profession</t>
+  </si>
+  <si>
+    <t>Father's Id</t>
+  </si>
+  <si>
+    <t>Father's Id Type</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>Mobile #</t>
+  </si>
+  <si>
+    <t>Home #</t>
   </si>
   <si>
     <t>Father's Last Name</t>
   </si>
   <si>
-    <t>Mother's First Name</t>
-  </si>
-  <si>
-    <t>Mother's Last Name</t>
-  </si>
-  <si>
-    <t>Father's Profession</t>
-  </si>
-  <si>
-    <t>Mother's Profession</t>
-  </si>
-  <si>
-    <t>Email Id</t>
-  </si>
-  <si>
-    <t>Identity Card #</t>
-  </si>
-  <si>
-    <t>Identity Card Type</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>ZIP Code</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Home Phone</t>
-  </si>
-  <si>
-    <t>Work Phone</t>
-  </si>
-  <si>
-    <t>Anil</t>
-  </si>
-  <si>
-    <t>Anamika</t>
-  </si>
-  <si>
-    <t>anil@gmail.com</t>
+    <t>tempFath Name</t>
+  </si>
+  <si>
+    <t>temp Moth Name</t>
+  </si>
+  <si>
+    <t>mothere last name</t>
+  </si>
+  <si>
+    <t>useremail@emamil.com</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,7 +427,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,22 +476,55 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>3124</v>
+      </c>
+      <c r="H2">
+        <v>43214</v>
+      </c>
+      <c r="I2">
+        <v>31243</v>
+      </c>
+      <c r="J2">
+        <v>31242</v>
+      </c>
+      <c r="K2">
+        <v>3124</v>
+      </c>
+      <c r="L2">
+        <v>43214</v>
+      </c>
+      <c r="M2">
+        <v>413234</v>
+      </c>
+      <c r="N2">
+        <v>43124431243</v>
+      </c>
       <c r="O2">
-        <v>9462387666</v>
+        <v>4132</v>
+      </c>
+      <c r="P2">
+        <v>4312</v>
       </c>
     </row>
   </sheetData>
